--- a/LauncherClient/_C.xlsx
+++ b/LauncherClient/_C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ushort</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Cqq8IlQYpQmdqbdGRuBN7w==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,6 +480,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LauncherClient/_C.xlsx
+++ b/LauncherClient/_C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ushort</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>服务名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +429,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,6 +494,9 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
